--- a/68HC11.xlsx
+++ b/68HC11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kike\Desktop\Proyecto EyPC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KevFS\OneDrive\Escritorio\EyPdC-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A393CF22-F62D-4CF8-867C-CD16DA221831}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171C45AB-8E0A-48DB-83E9-2577F3725D87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3625" uniqueCount="403">
   <si>
     <t>UNIVERSIDAD  NACIONAL AUTÓNOMA DE MÉXICO</t>
   </si>
@@ -532,9 +532,6 @@
     <t>jmp</t>
   </si>
   <si>
-    <t>6E</t>
-  </si>
-  <si>
     <t>7E</t>
   </si>
   <si>
@@ -1088,9 +1085,6 @@
   </si>
   <si>
     <t>18 08</t>
-  </si>
-  <si>
-    <t>18 6E</t>
   </si>
   <si>
     <t>18 AD</t>
@@ -1398,7 +1392,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1960,13 +1954,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2240,6 +2295,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2584,8 +2660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:W1"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R84" sqref="R84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2593,7 +2669,7 @@
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" customWidth="1"/>
     <col min="7" max="7" width="5.140625" customWidth="1"/>
@@ -2709,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D6" s="89"/>
       <c r="E6" s="91"/>
@@ -2729,7 +2805,7 @@
       <c r="M6" s="89"/>
       <c r="N6" s="89"/>
       <c r="O6" s="90" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="P6" s="89"/>
       <c r="Q6" s="91"/>
@@ -2744,7 +2820,7 @@
       <c r="V6" s="89"/>
       <c r="W6" s="91"/>
       <c r="X6" s="92" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Y6" s="93"/>
       <c r="Z6" s="93"/>
@@ -2791,7 +2867,7 @@
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>71</v>
@@ -2800,7 +2876,7 @@
         <v>72</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>71</v>
@@ -2809,7 +2885,7 @@
         <v>72</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>71</v>
@@ -2818,7 +2894,7 @@
         <v>72</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M8" s="12" t="s">
         <v>71</v>
@@ -2827,7 +2903,7 @@
         <v>72</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P8" s="12" t="s">
         <v>71</v>
@@ -2836,7 +2912,7 @@
         <v>72</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>71</v>
@@ -2845,7 +2921,7 @@
         <v>72</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V8" s="12" t="s">
         <v>71</v>
@@ -3121,7 +3197,7 @@
         <v>73</v>
       </c>
       <c r="R11" s="44" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S11" s="40">
         <v>4</v>
@@ -3198,7 +3274,7 @@
         <v>2</v>
       </c>
       <c r="L12" s="45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M12" s="33">
         <v>5</v>
@@ -3361,7 +3437,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D14" s="33">
         <v>2</v>
@@ -3388,7 +3464,7 @@
         <v>2</v>
       </c>
       <c r="L14" s="45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M14" s="33">
         <v>5</v>
@@ -3483,7 +3559,7 @@
         <v>2</v>
       </c>
       <c r="L15" s="44" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M15" s="40">
         <v>5</v>
@@ -3673,7 +3749,7 @@
         <v>2</v>
       </c>
       <c r="L17" s="44" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M17" s="40">
         <v>5</v>
@@ -3768,7 +3844,7 @@
         <v>2</v>
       </c>
       <c r="L18" s="45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M18" s="33">
         <v>5</v>
@@ -3863,7 +3939,7 @@
         <v>2</v>
       </c>
       <c r="L19" s="44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M19" s="40">
         <v>7</v>
@@ -4243,7 +4319,7 @@
         <v>2</v>
       </c>
       <c r="L23" s="44" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M23" s="40">
         <v>7</v>
@@ -4623,7 +4699,7 @@
         <v>3</v>
       </c>
       <c r="L27" s="44" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M27" s="40">
         <v>8</v>
@@ -5289,7 +5365,7 @@
         <v>2</v>
       </c>
       <c r="L34" s="45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M34" s="33">
         <v>5</v>
@@ -5384,7 +5460,7 @@
         <v>2</v>
       </c>
       <c r="L35" s="44" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M35" s="40">
         <v>5</v>
@@ -6239,7 +6315,7 @@
         <v>4</v>
       </c>
       <c r="L44" s="45" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M44" s="33">
         <v>8</v>
@@ -6429,7 +6505,7 @@
         <v>4</v>
       </c>
       <c r="L46" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M46" s="33">
         <v>8</v>
@@ -6524,7 +6600,7 @@
         <v>3</v>
       </c>
       <c r="L47" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M47" s="33">
         <v>8</v>
@@ -7189,7 +7265,7 @@
         <v>2</v>
       </c>
       <c r="L54" s="45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M54" s="33">
         <v>7</v>
@@ -7569,7 +7645,7 @@
         <v>2</v>
       </c>
       <c r="L58" s="44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M58" s="52">
         <v>5</v>
@@ -7759,7 +7835,7 @@
         <v>2</v>
       </c>
       <c r="L60" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M60" s="33">
         <v>7</v>
@@ -8017,7 +8093,7 @@
         <v>61</v>
       </c>
       <c r="C63" s="47" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D63" s="33">
         <v>5</v>
@@ -8026,7 +8102,7 @@
         <v>4</v>
       </c>
       <c r="F63" s="45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G63" s="33">
         <v>6</v>
@@ -8035,7 +8111,7 @@
         <v>3</v>
       </c>
       <c r="I63" s="47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J63" s="33">
         <v>7</v>
@@ -8044,7 +8120,7 @@
         <v>3</v>
       </c>
       <c r="L63" s="45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M63" s="33">
         <v>7</v>
@@ -8053,7 +8129,7 @@
         <v>3</v>
       </c>
       <c r="O63" s="47" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P63" s="33">
         <v>7</v>
@@ -8139,7 +8215,7 @@
         <v>2</v>
       </c>
       <c r="L64" s="45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M64" s="33">
         <v>7</v>
@@ -8207,7 +8283,7 @@
         <v>63</v>
       </c>
       <c r="C65" s="47" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D65" s="33">
         <v>5</v>
@@ -8216,7 +8292,7 @@
         <v>4</v>
       </c>
       <c r="F65" s="45" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G65" s="33">
         <v>6</v>
@@ -8225,7 +8301,7 @@
         <v>3</v>
       </c>
       <c r="I65" s="47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J65" s="33">
         <v>7</v>
@@ -8234,7 +8310,7 @@
         <v>3</v>
       </c>
       <c r="L65" s="45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M65" s="33">
         <v>7</v>
@@ -8243,7 +8319,7 @@
         <v>3</v>
       </c>
       <c r="O65" s="47" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P65" s="33">
         <v>7</v>
@@ -8424,7 +8500,7 @@
         <v>2</v>
       </c>
       <c r="L67" s="45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M67" s="33">
         <v>7</v>
@@ -8822,7 +8898,7 @@
         <v>73</v>
       </c>
       <c r="R71" s="45" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="S71" s="33">
         <v>3</v>
@@ -8917,7 +8993,7 @@
         <v>73</v>
       </c>
       <c r="R72" s="45" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S72" s="33">
         <v>4</v>
@@ -8994,7 +9070,7 @@
         <v>2</v>
       </c>
       <c r="L73" s="45" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M73" s="33">
         <v>5</v>
@@ -9089,7 +9165,7 @@
         <v>2</v>
       </c>
       <c r="L74" s="48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M74" s="33">
         <v>5</v>
@@ -9202,7 +9278,7 @@
         <v>73</v>
       </c>
       <c r="R75" s="45" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="S75" s="33">
         <v>41</v>
@@ -9297,7 +9373,7 @@
         <v>73</v>
       </c>
       <c r="R76" s="45" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="S76" s="33">
         <v>41</v>
@@ -9374,7 +9450,7 @@
         <v>2</v>
       </c>
       <c r="L77" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M77" s="33">
         <v>7</v>
@@ -9770,7 +9846,7 @@
         <v>73</v>
       </c>
       <c r="R81" s="45" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="S81" s="33">
         <v>3</v>
@@ -9846,31 +9922,31 @@
       <c r="K82" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="L82" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="M82" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="N82" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="O82" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="P82" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q82" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="R82" s="45" t="s">
-        <v>354</v>
-      </c>
-      <c r="S82" s="33">
+      <c r="L82" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="M82" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="N82" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="O82" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="P82" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q82" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="R82" s="100" t="s">
+        <v>353</v>
+      </c>
+      <c r="S82" s="96">
         <v>4</v>
       </c>
-      <c r="T82" s="34">
+      <c r="T82" s="99">
         <v>2</v>
       </c>
       <c r="U82" s="35" t="s">
@@ -9914,7 +9990,7 @@
       <c r="B83" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="32" t="s">
+      <c r="C83" s="35" t="s">
         <v>73</v>
       </c>
       <c r="D83" s="33" t="s">
@@ -9929,46 +10005,46 @@
       <c r="G83" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="H83" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I83" s="32" t="s">
+      <c r="H83" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I83" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="J83" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K83" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="L83" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="M83" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="N83" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="O83" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="J83" s="33">
-        <v>3</v>
-      </c>
-      <c r="K83" s="34">
-        <v>2</v>
-      </c>
-      <c r="L83" s="45" t="s">
-        <v>355</v>
-      </c>
-      <c r="M83" s="33">
-        <v>4</v>
-      </c>
-      <c r="N83" s="36">
-        <v>3</v>
-      </c>
-      <c r="O83" s="32" t="s">
-        <v>170</v>
-      </c>
       <c r="P83" s="33">
         <v>3</v>
       </c>
-      <c r="Q83" s="34">
-        <v>3</v>
-      </c>
-      <c r="R83" s="35" t="s">
+      <c r="Q83" s="33">
+        <v>3</v>
+      </c>
+      <c r="R83" s="33" t="s">
         <v>73</v>
       </c>
       <c r="S83" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="T83" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="U83" s="35" t="s">
+      <c r="T83" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="U83" s="32" t="s">
         <v>73</v>
       </c>
       <c r="V83" s="33" t="s">
@@ -10007,19 +10083,19 @@
         <v>76</v>
       </c>
       <c r="B84" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E84" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F84" s="35" t="s">
         <v>171</v>
-      </c>
-      <c r="C84" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D84" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E84" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F84" s="35" t="s">
-        <v>172</v>
       </c>
       <c r="G84" s="33">
         <v>5</v>
@@ -10028,7 +10104,7 @@
         <v>2</v>
       </c>
       <c r="I84" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J84" s="33">
         <v>6</v>
@@ -10036,31 +10112,31 @@
       <c r="K84" s="34">
         <v>2</v>
       </c>
-      <c r="L84" s="45" t="s">
-        <v>356</v>
-      </c>
-      <c r="M84" s="33">
+      <c r="L84" s="101" t="s">
+        <v>354</v>
+      </c>
+      <c r="M84" s="68">
         <v>7</v>
       </c>
-      <c r="N84" s="36">
-        <v>3</v>
-      </c>
-      <c r="O84" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="P84" s="33">
+      <c r="N84" s="69">
+        <v>3</v>
+      </c>
+      <c r="O84" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="P84" s="68">
         <v>6</v>
       </c>
-      <c r="Q84" s="34">
-        <v>3</v>
-      </c>
-      <c r="R84" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="S84" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="T84" s="34" t="s">
+      <c r="Q84" s="71">
+        <v>3</v>
+      </c>
+      <c r="R84" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="S84" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="T84" s="71" t="s">
         <v>73</v>
       </c>
       <c r="U84" s="35" t="s">
@@ -10102,7 +10178,7 @@
         <v>77</v>
       </c>
       <c r="B85" s="59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C85" s="60">
         <v>86</v>
@@ -10123,7 +10199,7 @@
         <v>2</v>
       </c>
       <c r="I85" s="60" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J85" s="61">
         <v>4</v>
@@ -10132,7 +10208,7 @@
         <v>2</v>
       </c>
       <c r="L85" s="65" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M85" s="61">
         <v>5</v>
@@ -10141,7 +10217,7 @@
         <v>3</v>
       </c>
       <c r="O85" s="60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P85" s="61">
         <v>4</v>
@@ -10197,20 +10273,20 @@
         <v>78</v>
       </c>
       <c r="B86" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C86" s="32" t="s">
+      <c r="D86" s="33">
+        <v>2</v>
+      </c>
+      <c r="E86" s="34">
+        <v>2</v>
+      </c>
+      <c r="F86" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="D86" s="33">
-        <v>2</v>
-      </c>
-      <c r="E86" s="34">
-        <v>2</v>
-      </c>
-      <c r="F86" s="76" t="s">
-        <v>178</v>
-      </c>
       <c r="G86" s="77">
         <v>3</v>
       </c>
@@ -10218,7 +10294,7 @@
         <v>2</v>
       </c>
       <c r="I86" s="32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J86" s="33">
         <v>4</v>
@@ -10227,7 +10303,7 @@
         <v>2</v>
       </c>
       <c r="L86" s="79" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M86" s="77">
         <v>5</v>
@@ -10236,7 +10312,7 @@
         <v>3</v>
       </c>
       <c r="O86" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P86" s="33">
         <v>4</v>
@@ -10292,19 +10368,19 @@
         <v>79</v>
       </c>
       <c r="B87" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C87" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="C87" s="32" t="s">
+      <c r="D87" s="33">
+        <v>3</v>
+      </c>
+      <c r="E87" s="34">
+        <v>3</v>
+      </c>
+      <c r="F87" s="35" t="s">
         <v>184</v>
-      </c>
-      <c r="D87" s="33">
-        <v>3</v>
-      </c>
-      <c r="E87" s="34">
-        <v>3</v>
-      </c>
-      <c r="F87" s="35" t="s">
-        <v>185</v>
       </c>
       <c r="G87" s="33">
         <v>4</v>
@@ -10313,7 +10389,7 @@
         <v>2</v>
       </c>
       <c r="I87" s="32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J87" s="33">
         <v>5</v>
@@ -10322,7 +10398,7 @@
         <v>2</v>
       </c>
       <c r="L87" s="45" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M87" s="33">
         <v>6</v>
@@ -10331,7 +10407,7 @@
         <v>3</v>
       </c>
       <c r="O87" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P87" s="33">
         <v>5</v>
@@ -10387,10 +10463,10 @@
         <v>80</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C88" s="47" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D88" s="33">
         <v>3</v>
@@ -10399,7 +10475,7 @@
         <v>3</v>
       </c>
       <c r="F88" s="35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G88" s="33">
         <v>4</v>
@@ -10408,7 +10484,7 @@
         <v>2</v>
       </c>
       <c r="I88" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J88" s="33">
         <v>5</v>
@@ -10417,7 +10493,7 @@
         <v>2</v>
       </c>
       <c r="L88" s="45" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M88" s="33">
         <v>6</v>
@@ -10426,7 +10502,7 @@
         <v>3</v>
       </c>
       <c r="O88" s="47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P88" s="33">
         <v>5</v>
@@ -10482,19 +10558,19 @@
         <v>81</v>
       </c>
       <c r="B89" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C89" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C89" s="32" t="s">
+      <c r="D89" s="33">
+        <v>3</v>
+      </c>
+      <c r="E89" s="34">
+        <v>3</v>
+      </c>
+      <c r="F89" s="35" t="s">
         <v>196</v>
-      </c>
-      <c r="D89" s="33">
-        <v>3</v>
-      </c>
-      <c r="E89" s="34">
-        <v>3</v>
-      </c>
-      <c r="F89" s="35" t="s">
-        <v>197</v>
       </c>
       <c r="G89" s="33">
         <v>4</v>
@@ -10503,7 +10579,7 @@
         <v>2</v>
       </c>
       <c r="I89" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J89" s="33">
         <v>5</v>
@@ -10512,7 +10588,7 @@
         <v>2</v>
       </c>
       <c r="L89" s="45" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="M89" s="33">
         <v>6</v>
@@ -10521,7 +10597,7 @@
         <v>3</v>
       </c>
       <c r="O89" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P89" s="33">
         <v>5</v>
@@ -10577,10 +10653,10 @@
         <v>82</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C90" s="47" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D90" s="33">
         <v>4</v>
@@ -10589,7 +10665,7 @@
         <v>4</v>
       </c>
       <c r="F90" s="45" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G90" s="33">
         <v>5</v>
@@ -10598,7 +10674,7 @@
         <v>3</v>
       </c>
       <c r="I90" s="47" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J90" s="33">
         <v>6</v>
@@ -10607,7 +10683,7 @@
         <v>3</v>
       </c>
       <c r="L90" s="45" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M90" s="33">
         <v>6</v>
@@ -10616,7 +10692,7 @@
         <v>3</v>
       </c>
       <c r="O90" s="47" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="P90" s="33">
         <v>6</v>
@@ -10672,7 +10748,7 @@
         <v>83</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C91" s="32" t="s">
         <v>73</v>
@@ -10702,7 +10778,7 @@
         <v>2</v>
       </c>
       <c r="L91" s="45" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M91" s="33">
         <v>7</v>
@@ -10767,7 +10843,7 @@
         <v>84</v>
       </c>
       <c r="B92" s="56" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C92" s="32" t="s">
         <v>73</v>
@@ -10862,7 +10938,7 @@
         <v>85</v>
       </c>
       <c r="B93" s="56" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C93" s="32" t="s">
         <v>73</v>
@@ -10957,7 +11033,7 @@
         <v>86</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C94" s="32" t="s">
         <v>73</v>
@@ -11005,7 +11081,7 @@
         <v>73</v>
       </c>
       <c r="R94" s="45" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="S94" s="33">
         <v>3</v>
@@ -11052,7 +11128,7 @@
         <v>87</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C95" s="32" t="s">
         <v>73</v>
@@ -11082,7 +11158,7 @@
         <v>2</v>
       </c>
       <c r="L95" s="45" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M95" s="33">
         <v>7</v>
@@ -11147,7 +11223,7 @@
         <v>88</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C96" s="32" t="s">
         <v>73</v>
@@ -11242,7 +11318,7 @@
         <v>89</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C97" s="32" t="s">
         <v>73</v>
@@ -11337,7 +11413,7 @@
         <v>90</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C98" s="32" t="s">
         <v>73</v>
@@ -11385,7 +11461,7 @@
         <v>73</v>
       </c>
       <c r="R98" s="45" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="S98" s="33">
         <v>3</v>
@@ -11432,55 +11508,55 @@
         <v>91</v>
       </c>
       <c r="B99" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D99" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E99" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F99" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G99" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H99" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I99" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="J99" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K99" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="L99" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M99" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="N99" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="O99" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="P99" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q99" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="R99" s="35" t="s">
         <v>206</v>
-      </c>
-      <c r="C99" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D99" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E99" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F99" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="G99" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H99" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I99" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="J99" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="K99" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="L99" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="M99" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="N99" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="O99" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="P99" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q99" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="R99" s="35" t="s">
-        <v>207</v>
       </c>
       <c r="S99" s="33">
         <v>10</v>
@@ -11527,7 +11603,7 @@
         <v>92</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C100" s="32" t="s">
         <v>73</v>
@@ -11557,7 +11633,7 @@
         <v>2</v>
       </c>
       <c r="L100" s="45" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M100" s="33">
         <v>7</v>
@@ -11622,7 +11698,7 @@
         <v>93</v>
       </c>
       <c r="B101" s="66" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C101" s="70" t="s">
         <v>73</v>
@@ -11717,7 +11793,7 @@
         <v>94</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C102" s="32" t="s">
         <v>73</v>
@@ -11812,55 +11888,55 @@
         <v>95</v>
       </c>
       <c r="B103" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="C103" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D103" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E103" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F103" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G103" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H103" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I103" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="J103" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K103" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="L103" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M103" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="N103" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="O103" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="P103" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q103" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="R103" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="C103" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D103" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E103" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F103" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="G103" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H103" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I103" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="J103" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="K103" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="L103" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="M103" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="N103" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="O103" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="P103" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q103" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="R103" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="S103" s="33">
         <v>2</v>
@@ -11907,10 +11983,10 @@
         <v>96</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D104" s="33">
         <v>2</v>
@@ -11919,7 +11995,7 @@
         <v>2</v>
       </c>
       <c r="F104" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G104" s="33">
         <v>3</v>
@@ -11928,7 +12004,7 @@
         <v>2</v>
       </c>
       <c r="I104" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J104" s="33">
         <v>4</v>
@@ -11937,7 +12013,7 @@
         <v>2</v>
       </c>
       <c r="L104" s="35" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M104" s="33">
         <v>5</v>
@@ -11946,7 +12022,7 @@
         <v>3</v>
       </c>
       <c r="O104" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P104" s="33">
         <v>4</v>
@@ -12002,10 +12078,10 @@
         <v>97</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D105" s="33">
         <v>2</v>
@@ -12014,7 +12090,7 @@
         <v>2</v>
       </c>
       <c r="F105" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G105" s="33">
         <v>3</v>
@@ -12023,7 +12099,7 @@
         <v>2</v>
       </c>
       <c r="I105" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J105" s="33">
         <v>4</v>
@@ -12032,7 +12108,7 @@
         <v>2</v>
       </c>
       <c r="L105" s="35" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M105" s="33">
         <v>5</v>
@@ -12041,7 +12117,7 @@
         <v>3</v>
       </c>
       <c r="O105" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P105" s="33">
         <v>4</v>
@@ -12097,7 +12173,7 @@
         <v>98</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C106" s="32" t="s">
         <v>73</v>
@@ -12192,7 +12268,7 @@
         <v>99</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C107" s="32" t="s">
         <v>73</v>
@@ -12287,55 +12363,55 @@
         <v>100</v>
       </c>
       <c r="B108" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="C108" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D108" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E108" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F108" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G108" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H108" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I108" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="J108" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K108" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="L108" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M108" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="N108" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="O108" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="P108" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q108" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="R108" s="35" t="s">
         <v>225</v>
-      </c>
-      <c r="C108" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D108" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E108" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F108" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="G108" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H108" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I108" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="J108" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="K108" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="L108" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="M108" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="N108" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="O108" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="P108" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q108" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="R108" s="35" t="s">
-        <v>226</v>
       </c>
       <c r="S108" s="33">
         <v>4</v>
@@ -12382,7 +12458,7 @@
         <v>101</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C109" s="32" t="s">
         <v>73</v>
@@ -12430,7 +12506,7 @@
         <v>73</v>
       </c>
       <c r="R109" s="35" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="S109" s="33">
         <v>5</v>
@@ -12477,7 +12553,7 @@
         <v>102</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C110" s="32" t="s">
         <v>73</v>
@@ -12572,7 +12648,7 @@
         <v>103</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C111" s="32" t="s">
         <v>73</v>
@@ -12667,7 +12743,7 @@
         <v>104</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C112" s="32" t="s">
         <v>73</v>
@@ -12762,7 +12838,7 @@
         <v>105</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C113" s="32" t="s">
         <v>73</v>
@@ -12810,7 +12886,7 @@
         <v>73</v>
       </c>
       <c r="R113" s="35" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="S113" s="33">
         <v>6</v>
@@ -12857,7 +12933,7 @@
         <v>106</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C114" s="32" t="s">
         <v>73</v>
@@ -12887,7 +12963,7 @@
         <v>2</v>
       </c>
       <c r="L114" s="35" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M114" s="33">
         <v>7</v>
@@ -12952,7 +13028,7 @@
         <v>107</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C115" s="32" t="s">
         <v>73</v>
@@ -13047,7 +13123,7 @@
         <v>108</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C116" s="32" t="s">
         <v>73</v>
@@ -13142,7 +13218,7 @@
         <v>109</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C117" s="32" t="s">
         <v>73</v>
@@ -13172,7 +13248,7 @@
         <v>2</v>
       </c>
       <c r="L117" s="35" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M117" s="33">
         <v>7</v>
@@ -13237,7 +13313,7 @@
         <v>110</v>
       </c>
       <c r="B118" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C118" s="32" t="s">
         <v>73</v>
@@ -13332,7 +13408,7 @@
         <v>111</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C119" s="32" t="s">
         <v>73</v>
@@ -13427,55 +13503,55 @@
         <v>112</v>
       </c>
       <c r="B120" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="C120" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D120" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E120" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F120" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G120" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H120" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I120" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="J120" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K120" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="L120" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M120" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="N120" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="O120" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="P120" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q120" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="R120" s="35" t="s">
         <v>238</v>
-      </c>
-      <c r="C120" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D120" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E120" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F120" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="G120" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H120" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I120" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="J120" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="K120" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="L120" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="M120" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="N120" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="O120" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="P120" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q120" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="R120" s="35" t="s">
-        <v>239</v>
       </c>
       <c r="S120" s="33">
         <v>12</v>
@@ -13522,7 +13598,7 @@
         <v>113</v>
       </c>
       <c r="B121" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C121" s="32" t="s">
         <v>73</v>
@@ -13617,7 +13693,7 @@
         <v>114</v>
       </c>
       <c r="B122" s="31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C122" s="32" t="s">
         <v>73</v>
@@ -13712,7 +13788,7 @@
         <v>115</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C123" s="32">
         <v>82</v>
@@ -13733,7 +13809,7 @@
         <v>2</v>
       </c>
       <c r="I123" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J123" s="33">
         <v>4</v>
@@ -13742,7 +13818,7 @@
         <v>2</v>
       </c>
       <c r="L123" s="35" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M123" s="33">
         <v>5</v>
@@ -13751,7 +13827,7 @@
         <v>3</v>
       </c>
       <c r="O123" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P123" s="33">
         <v>4</v>
@@ -13807,28 +13883,28 @@
         <v>116</v>
       </c>
       <c r="B124" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C124" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="D124" s="33">
+        <v>2</v>
+      </c>
+      <c r="E124" s="34">
+        <v>2</v>
+      </c>
+      <c r="F124" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="D124" s="33">
-        <v>2</v>
-      </c>
-      <c r="E124" s="34">
-        <v>2</v>
-      </c>
-      <c r="F124" s="35" t="s">
+      <c r="G124" s="33">
+        <v>3</v>
+      </c>
+      <c r="H124" s="36">
+        <v>2</v>
+      </c>
+      <c r="I124" s="32" t="s">
         <v>247</v>
-      </c>
-      <c r="G124" s="33">
-        <v>3</v>
-      </c>
-      <c r="H124" s="36">
-        <v>2</v>
-      </c>
-      <c r="I124" s="32" t="s">
-        <v>248</v>
       </c>
       <c r="J124" s="33">
         <v>4</v>
@@ -13837,7 +13913,7 @@
         <v>2</v>
       </c>
       <c r="L124" s="48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M124" s="33">
         <v>5</v>
@@ -13846,7 +13922,7 @@
         <v>3</v>
       </c>
       <c r="O124" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P124" s="33">
         <v>4</v>
@@ -13902,7 +13978,7 @@
         <v>117</v>
       </c>
       <c r="B125" s="31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C125" s="32" t="s">
         <v>73</v>
@@ -13950,7 +14026,7 @@
         <v>73</v>
       </c>
       <c r="R125" s="35" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="S125" s="33">
         <v>2</v>
@@ -13997,7 +14073,7 @@
         <v>118</v>
       </c>
       <c r="B126" s="31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C126" s="32" t="s">
         <v>73</v>
@@ -14045,7 +14121,7 @@
         <v>73</v>
       </c>
       <c r="R126" s="35" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="S126" s="33">
         <v>2</v>
@@ -14092,7 +14168,7 @@
         <v>119</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C127" s="32" t="s">
         <v>73</v>
@@ -14140,7 +14216,7 @@
         <v>73</v>
       </c>
       <c r="R127" s="35" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="S127" s="33">
         <v>2</v>
@@ -14187,7 +14263,7 @@
         <v>120</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C128" s="32" t="s">
         <v>73</v>
@@ -14208,7 +14284,7 @@
         <v>2</v>
       </c>
       <c r="I128" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J128" s="33">
         <v>4</v>
@@ -14217,7 +14293,7 @@
         <v>2</v>
       </c>
       <c r="L128" s="45" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="M128" s="33">
         <v>5</v>
@@ -14226,7 +14302,7 @@
         <v>3</v>
       </c>
       <c r="O128" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P128" s="33">
         <v>4</v>
@@ -14282,28 +14358,28 @@
         <v>121</v>
       </c>
       <c r="B129" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="C129" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D129" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E129" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F129" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="C129" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D129" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E129" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F129" s="35" t="s">
+      <c r="G129" s="33">
+        <v>3</v>
+      </c>
+      <c r="H129" s="36">
+        <v>2</v>
+      </c>
+      <c r="I129" s="32" t="s">
         <v>258</v>
-      </c>
-      <c r="G129" s="33">
-        <v>3</v>
-      </c>
-      <c r="H129" s="36">
-        <v>2</v>
-      </c>
-      <c r="I129" s="32" t="s">
-        <v>259</v>
       </c>
       <c r="J129" s="33">
         <v>4</v>
@@ -14312,7 +14388,7 @@
         <v>2</v>
       </c>
       <c r="L129" s="48" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M129" s="33">
         <v>5</v>
@@ -14321,7 +14397,7 @@
         <v>3</v>
       </c>
       <c r="O129" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P129" s="33">
         <v>4</v>
@@ -14377,19 +14453,19 @@
         <v>122</v>
       </c>
       <c r="B130" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="C130" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D130" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E130" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F130" s="35" t="s">
         <v>262</v>
-      </c>
-      <c r="C130" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D130" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E130" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F130" s="35" t="s">
-        <v>263</v>
       </c>
       <c r="G130" s="33">
         <v>4</v>
@@ -14398,7 +14474,7 @@
         <v>2</v>
       </c>
       <c r="I130" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J130" s="33">
         <v>5</v>
@@ -14407,7 +14483,7 @@
         <v>2</v>
       </c>
       <c r="L130" s="45" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M130" s="33">
         <v>6</v>
@@ -14416,7 +14492,7 @@
         <v>3</v>
       </c>
       <c r="O130" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P130" s="33">
         <v>5</v>
@@ -14472,55 +14548,55 @@
         <v>123</v>
       </c>
       <c r="B131" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="C131" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D131" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E131" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F131" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G131" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H131" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I131" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="J131" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K131" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="L131" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M131" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="N131" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="O131" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="P131" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q131" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="R131" s="35" t="s">
         <v>266</v>
-      </c>
-      <c r="C131" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D131" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E131" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F131" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="G131" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H131" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I131" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="J131" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="K131" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="L131" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="M131" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="N131" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="O131" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="P131" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q131" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="R131" s="35" t="s">
-        <v>267</v>
       </c>
       <c r="S131" s="33">
         <v>2</v>
@@ -14567,19 +14643,19 @@
         <v>124</v>
       </c>
       <c r="B132" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="C132" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D132" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E132" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F132" s="35" t="s">
         <v>268</v>
-      </c>
-      <c r="C132" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D132" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E132" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F132" s="35" t="s">
-        <v>269</v>
       </c>
       <c r="G132" s="33">
         <v>4</v>
@@ -14588,7 +14664,7 @@
         <v>2</v>
       </c>
       <c r="I132" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J132" s="33">
         <v>5</v>
@@ -14597,7 +14673,7 @@
         <v>2</v>
       </c>
       <c r="L132" s="45" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M132" s="33">
         <v>6</v>
@@ -14606,7 +14682,7 @@
         <v>3</v>
       </c>
       <c r="O132" s="32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P132" s="33">
         <v>5</v>
@@ -14662,19 +14738,19 @@
         <v>125</v>
       </c>
       <c r="B133" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="C133" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D133" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E133" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F133" s="35" t="s">
         <v>272</v>
-      </c>
-      <c r="C133" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D133" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E133" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F133" s="35" t="s">
-        <v>273</v>
       </c>
       <c r="G133" s="33">
         <v>4</v>
@@ -14683,7 +14759,7 @@
         <v>2</v>
       </c>
       <c r="I133" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J133" s="33">
         <v>5</v>
@@ -14692,7 +14768,7 @@
         <v>2</v>
       </c>
       <c r="L133" s="45" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M133" s="33">
         <v>6</v>
@@ -14701,7 +14777,7 @@
         <v>3</v>
       </c>
       <c r="O133" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P133" s="33">
         <v>5</v>
@@ -14757,7 +14833,7 @@
         <v>126</v>
       </c>
       <c r="B134" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C134" s="32" t="s">
         <v>73</v>
@@ -14769,7 +14845,7 @@
         <v>73</v>
       </c>
       <c r="F134" s="45" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G134" s="33">
         <v>5</v>
@@ -14778,7 +14854,7 @@
         <v>3</v>
       </c>
       <c r="I134" s="47" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J134" s="33">
         <v>6</v>
@@ -14787,7 +14863,7 @@
         <v>3</v>
       </c>
       <c r="L134" s="45" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M134" s="33">
         <v>6</v>
@@ -14796,7 +14872,7 @@
         <v>3</v>
       </c>
       <c r="O134" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P134" s="33">
         <v>6</v>
@@ -14852,7 +14928,7 @@
         <v>127</v>
       </c>
       <c r="B135" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C135" s="32">
         <v>80</v>
@@ -14873,7 +14949,7 @@
         <v>2</v>
       </c>
       <c r="I135" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J135" s="33">
         <v>4</v>
@@ -14882,7 +14958,7 @@
         <v>2</v>
       </c>
       <c r="L135" s="45" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M135" s="33">
         <v>5</v>
@@ -14891,7 +14967,7 @@
         <v>3</v>
       </c>
       <c r="O135" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P135" s="33">
         <v>4</v>
@@ -14947,28 +15023,28 @@
         <v>128</v>
       </c>
       <c r="B136" s="31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C136" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="D136" s="33">
+        <v>2</v>
+      </c>
+      <c r="E136" s="34">
+        <v>2</v>
+      </c>
+      <c r="F136" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="D136" s="33">
-        <v>2</v>
-      </c>
-      <c r="E136" s="34">
-        <v>2</v>
-      </c>
-      <c r="F136" s="35" t="s">
+      <c r="G136" s="33">
+        <v>3</v>
+      </c>
+      <c r="H136" s="36">
+        <v>2</v>
+      </c>
+      <c r="I136" s="32" t="s">
         <v>282</v>
-      </c>
-      <c r="G136" s="33">
-        <v>3</v>
-      </c>
-      <c r="H136" s="36">
-        <v>2</v>
-      </c>
-      <c r="I136" s="32" t="s">
-        <v>283</v>
       </c>
       <c r="J136" s="33">
         <v>4</v>
@@ -14977,7 +15053,7 @@
         <v>2</v>
       </c>
       <c r="L136" s="48" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M136" s="33">
         <v>5</v>
@@ -14986,7 +15062,7 @@
         <v>3</v>
       </c>
       <c r="O136" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P136" s="33">
         <v>4</v>
@@ -15042,7 +15118,7 @@
         <v>129</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C137" s="32">
         <v>83</v>
@@ -15063,7 +15139,7 @@
         <v>2</v>
       </c>
       <c r="I137" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J137" s="33">
         <v>6</v>
@@ -15072,7 +15148,7 @@
         <v>2</v>
       </c>
       <c r="L137" s="45" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M137" s="33">
         <v>7</v>
@@ -15081,7 +15157,7 @@
         <v>3</v>
       </c>
       <c r="O137" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P137" s="33">
         <v>6</v>
@@ -15137,55 +15213,55 @@
         <v>130</v>
       </c>
       <c r="B138" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="C138" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D138" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E138" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F138" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G138" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H138" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I138" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="J138" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K138" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="L138" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M138" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="N138" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="O138" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="P138" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q138" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="R138" s="35" t="s">
         <v>289</v>
-      </c>
-      <c r="C138" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D138" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E138" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F138" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="G138" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H138" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I138" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="J138" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="K138" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="L138" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="M138" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="N138" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="O138" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="P138" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q138" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="R138" s="35" t="s">
-        <v>290</v>
       </c>
       <c r="S138" s="33">
         <v>14</v>
@@ -15232,7 +15308,7 @@
         <v>131</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C139" s="32" t="s">
         <v>73</v>
@@ -15327,55 +15403,55 @@
         <v>132</v>
       </c>
       <c r="B140" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="C140" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D140" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E140" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F140" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G140" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H140" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I140" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="J140" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K140" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="L140" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M140" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="N140" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="O140" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="P140" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q140" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="R140" s="35" t="s">
         <v>292</v>
-      </c>
-      <c r="C140" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D140" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E140" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F140" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="G140" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H140" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I140" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="J140" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="K140" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="L140" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="M140" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="N140" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="O140" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="P140" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q140" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="R140" s="35" t="s">
-        <v>293</v>
       </c>
       <c r="S140" s="33">
         <v>2</v>
@@ -15422,7 +15498,7 @@
         <v>133</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C141" s="32" t="s">
         <v>73</v>
@@ -15517,61 +15593,61 @@
         <v>134</v>
       </c>
       <c r="B142" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="C142" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D142" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E142" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F142" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G142" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H142" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I142" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="J142" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K142" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="L142" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M142" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="N142" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="O142" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="P142" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q142" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="R142" s="35" t="s">
         <v>295</v>
-      </c>
-      <c r="C142" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D142" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E142" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F142" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="G142" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H142" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I142" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="J142" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="K142" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="L142" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="M142" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="N142" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="O142" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="P142" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q142" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="R142" s="35" t="s">
-        <v>296</v>
       </c>
       <c r="S142" s="33">
         <v>1</v>
       </c>
       <c r="T142" s="57" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="U142" s="32" t="s">
         <v>73</v>
@@ -15612,55 +15688,55 @@
         <v>135</v>
       </c>
       <c r="B143" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="C143" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D143" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E143" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F143" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G143" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H143" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I143" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="J143" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K143" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="L143" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M143" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="N143" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="O143" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="P143" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q143" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="R143" s="35" t="s">
         <v>297</v>
-      </c>
-      <c r="C143" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D143" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E143" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F143" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="G143" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H143" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I143" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="J143" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="K143" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="L143" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="M143" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="N143" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="O143" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="P143" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q143" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="R143" s="35" t="s">
-        <v>298</v>
       </c>
       <c r="S143" s="33">
         <v>2</v>
@@ -15707,28 +15783,28 @@
         <v>136</v>
       </c>
       <c r="B144" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="C144" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D144" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E144" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F144" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G144" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H144" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I144" s="32" t="s">
         <v>299</v>
-      </c>
-      <c r="C144" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D144" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E144" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F144" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="G144" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H144" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I144" s="32" t="s">
-        <v>300</v>
       </c>
       <c r="J144" s="33">
         <v>6</v>
@@ -15737,7 +15813,7 @@
         <v>2</v>
       </c>
       <c r="L144" s="45" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M144" s="33">
         <v>7</v>
@@ -15746,7 +15822,7 @@
         <v>3</v>
       </c>
       <c r="O144" s="32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P144" s="33">
         <v>6</v>
@@ -15802,7 +15878,7 @@
         <v>137</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C145" s="32" t="s">
         <v>73</v>
@@ -15850,7 +15926,7 @@
         <v>73</v>
       </c>
       <c r="R145" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S145" s="33">
         <v>2</v>
@@ -15897,7 +15973,7 @@
         <v>138</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C146" s="32" t="s">
         <v>73</v>
@@ -15945,7 +16021,7 @@
         <v>73</v>
       </c>
       <c r="R146" s="35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="S146" s="33">
         <v>2</v>
@@ -15992,7 +16068,7 @@
         <v>139</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C147" s="32" t="s">
         <v>73</v>
@@ -16087,7 +16163,7 @@
         <v>140</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C148" s="32" t="s">
         <v>73</v>
@@ -16135,7 +16211,7 @@
         <v>73</v>
       </c>
       <c r="R148" s="45" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="S148" s="33">
         <v>4</v>
@@ -16182,7 +16258,7 @@
         <v>141</v>
       </c>
       <c r="B149" s="56" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C149" s="32" t="s">
         <v>73</v>
@@ -16277,7 +16353,7 @@
         <v>142</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C150" s="32" t="s">
         <v>73</v>
@@ -16325,7 +16401,7 @@
         <v>73</v>
       </c>
       <c r="R150" s="45" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S150" s="33">
         <v>4</v>
@@ -16372,58 +16448,58 @@
         <v>143</v>
       </c>
       <c r="B151" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="C151" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D151" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E151" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F151" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G151" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H151" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I151" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="J151" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K151" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="L151" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M151" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="N151" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="O151" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="P151" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q151" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="R151" s="35" t="s">
         <v>309</v>
       </c>
-      <c r="C151" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D151" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E151" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F151" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="G151" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H151" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I151" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="J151" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="K151" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="L151" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="M151" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="N151" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="O151" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="P151" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q151" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="R151" s="35" t="s">
-        <v>310</v>
-      </c>
       <c r="S151" s="55" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="T151" s="36">
         <v>1</v>
@@ -16467,55 +16543,55 @@
         <v>144</v>
       </c>
       <c r="B152" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="C152" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D152" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E152" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F152" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G152" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H152" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I152" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="J152" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K152" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="L152" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M152" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="N152" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="O152" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="P152" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q152" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="R152" s="35" t="s">
         <v>311</v>
-      </c>
-      <c r="C152" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D152" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E152" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F152" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="G152" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H152" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I152" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="J152" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="K152" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="L152" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="M152" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="N152" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="O152" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="P152" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q152" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="R152" s="35" t="s">
-        <v>312</v>
       </c>
       <c r="S152" s="33">
         <v>3</v>
@@ -16562,7 +16638,7 @@
         <v>145</v>
       </c>
       <c r="B153" s="59" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C153" s="60" t="s">
         <v>73</v>
@@ -16610,7 +16686,7 @@
         <v>73</v>
       </c>
       <c r="R153" s="65" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S153" s="61">
         <v>4</v>
@@ -16659,7 +16735,7 @@
     <row r="155" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="E155" s="80" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F155" s="80"/>
       <c r="G155" s="81"/>
@@ -16667,7 +16743,7 @@
       <c r="I155" s="81"/>
       <c r="J155" s="81"/>
       <c r="K155" s="80" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L155" s="80"/>
       <c r="M155" s="81"/>
@@ -16679,7 +16755,7 @@
     </row>
     <row r="156" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E156" s="80" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F156" s="80"/>
       <c r="G156" s="81"/>
@@ -16687,7 +16763,7 @@
       <c r="I156" s="81"/>
       <c r="J156" s="81"/>
       <c r="K156" s="80" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L156" s="80"/>
       <c r="M156" s="81"/>
@@ -16699,7 +16775,7 @@
     </row>
     <row r="157" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K157" s="80" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L157" s="80"/>
       <c r="M157" s="80"/>
